--- a/Customer-Order-OM_Schema_Abstract_Resource/dataset2/Customer_Order_authentic_Dataset.xlsx
+++ b/Customer-Order-OM_Schema_Abstract_Resource/dataset2/Customer_Order_authentic_Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Customer-Order-OM_Schema_Abstract_Resource/dataset2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2480B3C2-50B8-C44F-9207-459363CAF802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BD3E5B-E362-954B-B020-128BD595076F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="15980" xr2:uid="{249923C2-717E-F44B-9D41-3A037F7CDE74}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="28800" windowHeight="15980" xr2:uid="{249923C2-717E-F44B-9D41-3A037F7CDE74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
